--- a/planejamento/cronograma-v4.xlsx
+++ b/planejamento/cronograma-v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\senai-dev-2s2019\planejamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04820E1F-9D4B-43B4-B7C3-667E99BF2595}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F824D4C-09F3-4F61-9D48-8F0FDA788ED9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="CRONOGRAMA_v2" sheetId="11" r:id="rId5"/>
     <sheet name="CRONOGRAMA_v2_1" sheetId="7" r:id="rId6"/>
     <sheet name="CRONOGRAMA_V3" sheetId="10" r:id="rId7"/>
-    <sheet name="CRONOGRAMA_V3_CONTEUDO" sheetId="12" r:id="rId8"/>
+    <sheet name="CRONOGRAMA_V4_CONTEUDO" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="230">
   <si>
     <t>3. Desenvolver interfaces web utilizando frameworks</t>
   </si>
@@ -1700,10 +1700,22 @@
     <t>Criar Desafio</t>
   </si>
   <si>
-    <t>O conteúdo foi antecipado devido a compromisso do Prof Posarle</t>
+    <t>Desafio Github</t>
   </si>
   <si>
-    <t>Desafio Github</t>
+    <t>Viacep, Sstop, Tabela Fipe</t>
+  </si>
+  <si>
+    <t>Troca de aula devido a compromisso do prof Posarle</t>
+  </si>
+  <si>
+    <t>Aula Posarle</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Conteúdo adiado para dia 03/10</t>
   </si>
 </sst>
 </file>
@@ -2759,7 +2771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="474">
+  <cellXfs count="480">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3349,9 +3361,6 @@
     <xf numFmtId="0" fontId="12" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3471,6 +3480,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4058,123 +4088,123 @@
   <sheetData>
     <row r="1" spans="1:119" s="61" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59"/>
-      <c r="B1" s="444" t="s">
+      <c r="B1" s="443" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="445"/>
-      <c r="D1" s="445"/>
-      <c r="E1" s="445"/>
-      <c r="F1" s="445"/>
-      <c r="G1" s="445"/>
-      <c r="H1" s="445"/>
-      <c r="I1" s="445"/>
-      <c r="J1" s="445"/>
-      <c r="K1" s="445"/>
-      <c r="L1" s="445"/>
-      <c r="M1" s="445"/>
-      <c r="N1" s="445"/>
-      <c r="O1" s="445"/>
-      <c r="P1" s="445"/>
-      <c r="Q1" s="445"/>
-      <c r="R1" s="444" t="s">
+      <c r="C1" s="444"/>
+      <c r="D1" s="444"/>
+      <c r="E1" s="444"/>
+      <c r="F1" s="444"/>
+      <c r="G1" s="444"/>
+      <c r="H1" s="444"/>
+      <c r="I1" s="444"/>
+      <c r="J1" s="444"/>
+      <c r="K1" s="444"/>
+      <c r="L1" s="444"/>
+      <c r="M1" s="444"/>
+      <c r="N1" s="444"/>
+      <c r="O1" s="444"/>
+      <c r="P1" s="444"/>
+      <c r="Q1" s="444"/>
+      <c r="R1" s="443" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="445"/>
-      <c r="T1" s="445"/>
-      <c r="U1" s="445"/>
-      <c r="V1" s="445"/>
-      <c r="W1" s="445"/>
-      <c r="X1" s="445"/>
-      <c r="Y1" s="445"/>
-      <c r="Z1" s="445"/>
-      <c r="AA1" s="445"/>
-      <c r="AB1" s="445"/>
-      <c r="AC1" s="445"/>
-      <c r="AD1" s="445"/>
-      <c r="AE1" s="445"/>
-      <c r="AF1" s="445"/>
-      <c r="AG1" s="445"/>
-      <c r="AH1" s="445"/>
-      <c r="AI1" s="445"/>
-      <c r="AJ1" s="445"/>
-      <c r="AK1" s="445"/>
-      <c r="AL1" s="445"/>
-      <c r="AM1" s="446"/>
-      <c r="AN1" s="444" t="s">
+      <c r="S1" s="444"/>
+      <c r="T1" s="444"/>
+      <c r="U1" s="444"/>
+      <c r="V1" s="444"/>
+      <c r="W1" s="444"/>
+      <c r="X1" s="444"/>
+      <c r="Y1" s="444"/>
+      <c r="Z1" s="444"/>
+      <c r="AA1" s="444"/>
+      <c r="AB1" s="444"/>
+      <c r="AC1" s="444"/>
+      <c r="AD1" s="444"/>
+      <c r="AE1" s="444"/>
+      <c r="AF1" s="444"/>
+      <c r="AG1" s="444"/>
+      <c r="AH1" s="444"/>
+      <c r="AI1" s="444"/>
+      <c r="AJ1" s="444"/>
+      <c r="AK1" s="444"/>
+      <c r="AL1" s="444"/>
+      <c r="AM1" s="445"/>
+      <c r="AN1" s="443" t="s">
         <v>69</v>
       </c>
-      <c r="AO1" s="445"/>
-      <c r="AP1" s="445"/>
-      <c r="AQ1" s="445"/>
-      <c r="AR1" s="445"/>
-      <c r="AS1" s="445"/>
-      <c r="AT1" s="446"/>
-      <c r="AU1" s="444" t="s">
+      <c r="AO1" s="444"/>
+      <c r="AP1" s="444"/>
+      <c r="AQ1" s="444"/>
+      <c r="AR1" s="444"/>
+      <c r="AS1" s="444"/>
+      <c r="AT1" s="445"/>
+      <c r="AU1" s="443" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="445"/>
-      <c r="AW1" s="445"/>
-      <c r="AX1" s="445"/>
-      <c r="AY1" s="445"/>
-      <c r="AZ1" s="445"/>
-      <c r="BA1" s="445"/>
-      <c r="BB1" s="445"/>
-      <c r="BC1" s="445"/>
-      <c r="BD1" s="445"/>
-      <c r="BE1" s="445"/>
-      <c r="BF1" s="445"/>
-      <c r="BG1" s="445"/>
-      <c r="BH1" s="445"/>
-      <c r="BI1" s="445"/>
-      <c r="BJ1" s="445"/>
-      <c r="BK1" s="445"/>
-      <c r="BL1" s="445"/>
-      <c r="BM1" s="445"/>
-      <c r="BN1" s="445"/>
-      <c r="BO1" s="445"/>
-      <c r="BP1" s="445"/>
-      <c r="BQ1" s="446"/>
-      <c r="BR1" s="444" t="s">
+      <c r="AV1" s="444"/>
+      <c r="AW1" s="444"/>
+      <c r="AX1" s="444"/>
+      <c r="AY1" s="444"/>
+      <c r="AZ1" s="444"/>
+      <c r="BA1" s="444"/>
+      <c r="BB1" s="444"/>
+      <c r="BC1" s="444"/>
+      <c r="BD1" s="444"/>
+      <c r="BE1" s="444"/>
+      <c r="BF1" s="444"/>
+      <c r="BG1" s="444"/>
+      <c r="BH1" s="444"/>
+      <c r="BI1" s="444"/>
+      <c r="BJ1" s="444"/>
+      <c r="BK1" s="444"/>
+      <c r="BL1" s="444"/>
+      <c r="BM1" s="444"/>
+      <c r="BN1" s="444"/>
+      <c r="BO1" s="444"/>
+      <c r="BP1" s="444"/>
+      <c r="BQ1" s="445"/>
+      <c r="BR1" s="443" t="s">
         <v>81</v>
       </c>
-      <c r="BS1" s="445"/>
-      <c r="BT1" s="445"/>
-      <c r="BU1" s="445"/>
-      <c r="BV1" s="445"/>
-      <c r="BW1" s="445"/>
-      <c r="BX1" s="445"/>
-      <c r="BY1" s="445"/>
-      <c r="BZ1" s="445"/>
-      <c r="CA1" s="445"/>
-      <c r="CB1" s="445"/>
-      <c r="CC1" s="445"/>
-      <c r="CD1" s="445"/>
-      <c r="CE1" s="445"/>
-      <c r="CF1" s="445"/>
-      <c r="CG1" s="445"/>
-      <c r="CH1" s="445"/>
-      <c r="CI1" s="445"/>
-      <c r="CJ1" s="445"/>
-      <c r="CK1" s="446"/>
-      <c r="CL1" s="444" t="s">
+      <c r="BS1" s="444"/>
+      <c r="BT1" s="444"/>
+      <c r="BU1" s="444"/>
+      <c r="BV1" s="444"/>
+      <c r="BW1" s="444"/>
+      <c r="BX1" s="444"/>
+      <c r="BY1" s="444"/>
+      <c r="BZ1" s="444"/>
+      <c r="CA1" s="444"/>
+      <c r="CB1" s="444"/>
+      <c r="CC1" s="444"/>
+      <c r="CD1" s="444"/>
+      <c r="CE1" s="444"/>
+      <c r="CF1" s="444"/>
+      <c r="CG1" s="444"/>
+      <c r="CH1" s="444"/>
+      <c r="CI1" s="444"/>
+      <c r="CJ1" s="444"/>
+      <c r="CK1" s="445"/>
+      <c r="CL1" s="443" t="s">
         <v>91</v>
       </c>
-      <c r="CM1" s="445"/>
-      <c r="CN1" s="445"/>
-      <c r="CO1" s="445"/>
-      <c r="CP1" s="445"/>
-      <c r="CQ1" s="445"/>
-      <c r="CR1" s="445"/>
-      <c r="CS1" s="445"/>
-      <c r="CT1" s="445"/>
-      <c r="CU1" s="445"/>
-      <c r="CV1" s="445"/>
-      <c r="CW1" s="445"/>
-      <c r="CX1" s="445"/>
-      <c r="CY1" s="445"/>
-      <c r="CZ1" s="445"/>
-      <c r="DA1" s="445"/>
-      <c r="DB1" s="445"/>
+      <c r="CM1" s="444"/>
+      <c r="CN1" s="444"/>
+      <c r="CO1" s="444"/>
+      <c r="CP1" s="444"/>
+      <c r="CQ1" s="444"/>
+      <c r="CR1" s="444"/>
+      <c r="CS1" s="444"/>
+      <c r="CT1" s="444"/>
+      <c r="CU1" s="444"/>
+      <c r="CV1" s="444"/>
+      <c r="CW1" s="444"/>
+      <c r="CX1" s="444"/>
+      <c r="CY1" s="444"/>
+      <c r="CZ1" s="444"/>
+      <c r="DA1" s="444"/>
+      <c r="DB1" s="444"/>
       <c r="DC1" s="60"/>
     </row>
     <row r="2" spans="1:119" s="24" customFormat="1" x14ac:dyDescent="0.25">
@@ -22801,15 +22831,15 @@
       <c r="CV86" s="28">
         <v>11</v>
       </c>
-      <c r="CW86" s="442" t="s">
+      <c r="CW86" s="441" t="s">
         <v>92</v>
       </c>
-      <c r="CX86" s="442"/>
-      <c r="CY86" s="442"/>
-      <c r="CZ86" s="442"/>
-      <c r="DA86" s="442"/>
-      <c r="DB86" s="442"/>
-      <c r="DC86" s="443"/>
+      <c r="CX86" s="441"/>
+      <c r="CY86" s="441"/>
+      <c r="CZ86" s="441"/>
+      <c r="DA86" s="441"/>
+      <c r="DB86" s="441"/>
+      <c r="DC86" s="442"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -23199,118 +23229,118 @@
   <sheetData>
     <row r="1" spans="1:102" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="456" t="s">
+      <c r="B1" s="455" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="457"/>
-      <c r="I1" s="457"/>
-      <c r="J1" s="457"/>
-      <c r="K1" s="457"/>
-      <c r="L1" s="457"/>
-      <c r="M1" s="457"/>
-      <c r="N1" s="457"/>
-      <c r="O1" s="457"/>
-      <c r="P1" s="457"/>
-      <c r="Q1" s="458"/>
-      <c r="R1" s="447" t="s">
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
+      <c r="P1" s="456"/>
+      <c r="Q1" s="457"/>
+      <c r="R1" s="446" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="448"/>
-      <c r="T1" s="448"/>
-      <c r="U1" s="448"/>
-      <c r="V1" s="448"/>
-      <c r="W1" s="448"/>
-      <c r="X1" s="448"/>
-      <c r="Y1" s="448"/>
-      <c r="Z1" s="448"/>
-      <c r="AA1" s="448"/>
-      <c r="AB1" s="448"/>
-      <c r="AC1" s="448"/>
-      <c r="AD1" s="448"/>
-      <c r="AE1" s="448"/>
-      <c r="AF1" s="448"/>
-      <c r="AG1" s="448"/>
-      <c r="AH1" s="448"/>
-      <c r="AI1" s="448"/>
-      <c r="AJ1" s="448"/>
-      <c r="AK1" s="448"/>
-      <c r="AL1" s="449"/>
-      <c r="AM1" s="447" t="s">
+      <c r="S1" s="447"/>
+      <c r="T1" s="447"/>
+      <c r="U1" s="447"/>
+      <c r="V1" s="447"/>
+      <c r="W1" s="447"/>
+      <c r="X1" s="447"/>
+      <c r="Y1" s="447"/>
+      <c r="Z1" s="447"/>
+      <c r="AA1" s="447"/>
+      <c r="AB1" s="447"/>
+      <c r="AC1" s="447"/>
+      <c r="AD1" s="447"/>
+      <c r="AE1" s="447"/>
+      <c r="AF1" s="447"/>
+      <c r="AG1" s="447"/>
+      <c r="AH1" s="447"/>
+      <c r="AI1" s="447"/>
+      <c r="AJ1" s="447"/>
+      <c r="AK1" s="447"/>
+      <c r="AL1" s="448"/>
+      <c r="AM1" s="446" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="448"/>
-      <c r="AO1" s="448"/>
-      <c r="AP1" s="448"/>
-      <c r="AQ1" s="448"/>
-      <c r="AR1" s="448"/>
-      <c r="AS1" s="448"/>
-      <c r="AT1" s="448"/>
-      <c r="AU1" s="448"/>
-      <c r="AV1" s="448"/>
-      <c r="AW1" s="448"/>
-      <c r="AX1" s="448"/>
-      <c r="AY1" s="448"/>
-      <c r="AZ1" s="448"/>
-      <c r="BA1" s="448"/>
-      <c r="BB1" s="448"/>
-      <c r="BC1" s="448"/>
-      <c r="BD1" s="448"/>
-      <c r="BE1" s="448"/>
-      <c r="BF1" s="448"/>
-      <c r="BG1" s="448"/>
-      <c r="BH1" s="449"/>
-      <c r="BI1" s="447" t="s">
+      <c r="AN1" s="447"/>
+      <c r="AO1" s="447"/>
+      <c r="AP1" s="447"/>
+      <c r="AQ1" s="447"/>
+      <c r="AR1" s="447"/>
+      <c r="AS1" s="447"/>
+      <c r="AT1" s="447"/>
+      <c r="AU1" s="447"/>
+      <c r="AV1" s="447"/>
+      <c r="AW1" s="447"/>
+      <c r="AX1" s="447"/>
+      <c r="AY1" s="447"/>
+      <c r="AZ1" s="447"/>
+      <c r="BA1" s="447"/>
+      <c r="BB1" s="447"/>
+      <c r="BC1" s="447"/>
+      <c r="BD1" s="447"/>
+      <c r="BE1" s="447"/>
+      <c r="BF1" s="447"/>
+      <c r="BG1" s="447"/>
+      <c r="BH1" s="448"/>
+      <c r="BI1" s="446" t="s">
         <v>124</v>
       </c>
-      <c r="BJ1" s="448"/>
-      <c r="BK1" s="448"/>
-      <c r="BL1" s="448"/>
-      <c r="BM1" s="448"/>
-      <c r="BN1" s="448"/>
-      <c r="BO1" s="448"/>
-      <c r="BP1" s="448"/>
-      <c r="BQ1" s="448"/>
-      <c r="BR1" s="448"/>
-      <c r="BS1" s="448"/>
-      <c r="BT1" s="448"/>
-      <c r="BU1" s="448"/>
-      <c r="BV1" s="448"/>
-      <c r="BW1" s="448"/>
-      <c r="BX1" s="448"/>
-      <c r="BY1" s="448"/>
-      <c r="BZ1" s="448"/>
-      <c r="CA1" s="448"/>
-      <c r="CB1" s="448"/>
-      <c r="CC1" s="448"/>
-      <c r="CD1" s="449"/>
-      <c r="CE1" s="447" t="s">
+      <c r="BJ1" s="447"/>
+      <c r="BK1" s="447"/>
+      <c r="BL1" s="447"/>
+      <c r="BM1" s="447"/>
+      <c r="BN1" s="447"/>
+      <c r="BO1" s="447"/>
+      <c r="BP1" s="447"/>
+      <c r="BQ1" s="447"/>
+      <c r="BR1" s="447"/>
+      <c r="BS1" s="447"/>
+      <c r="BT1" s="447"/>
+      <c r="BU1" s="447"/>
+      <c r="BV1" s="447"/>
+      <c r="BW1" s="447"/>
+      <c r="BX1" s="447"/>
+      <c r="BY1" s="447"/>
+      <c r="BZ1" s="447"/>
+      <c r="CA1" s="447"/>
+      <c r="CB1" s="447"/>
+      <c r="CC1" s="447"/>
+      <c r="CD1" s="448"/>
+      <c r="CE1" s="446" t="s">
         <v>125</v>
       </c>
-      <c r="CF1" s="448"/>
-      <c r="CG1" s="448"/>
-      <c r="CH1" s="448"/>
-      <c r="CI1" s="448"/>
-      <c r="CJ1" s="448"/>
-      <c r="CK1" s="448"/>
-      <c r="CL1" s="448"/>
-      <c r="CM1" s="449"/>
-      <c r="CN1" s="447" t="s">
+      <c r="CF1" s="447"/>
+      <c r="CG1" s="447"/>
+      <c r="CH1" s="447"/>
+      <c r="CI1" s="447"/>
+      <c r="CJ1" s="447"/>
+      <c r="CK1" s="447"/>
+      <c r="CL1" s="447"/>
+      <c r="CM1" s="448"/>
+      <c r="CN1" s="446" t="s">
         <v>126</v>
       </c>
-      <c r="CO1" s="448"/>
-      <c r="CP1" s="448"/>
-      <c r="CQ1" s="448"/>
-      <c r="CR1" s="448"/>
-      <c r="CS1" s="448"/>
-      <c r="CT1" s="448"/>
-      <c r="CU1" s="448"/>
-      <c r="CV1" s="448"/>
-      <c r="CW1" s="449"/>
+      <c r="CO1" s="447"/>
+      <c r="CP1" s="447"/>
+      <c r="CQ1" s="447"/>
+      <c r="CR1" s="447"/>
+      <c r="CS1" s="447"/>
+      <c r="CT1" s="447"/>
+      <c r="CU1" s="447"/>
+      <c r="CV1" s="447"/>
+      <c r="CW1" s="448"/>
       <c r="CX1" s="99"/>
     </row>
     <row r="2" spans="1:102" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -24757,11 +24787,11 @@
       <c r="AH47" s="199"/>
       <c r="AL47" s="137"/>
       <c r="AM47" s="135"/>
-      <c r="AX47" s="450" t="s">
+      <c r="AX47" s="449" t="s">
         <v>121</v>
       </c>
-      <c r="AY47" s="451"/>
-      <c r="AZ47" s="452"/>
+      <c r="AY47" s="450"/>
+      <c r="AZ47" s="451"/>
       <c r="BA47" s="178"/>
       <c r="BB47" s="178"/>
       <c r="BC47" s="178"/>
@@ -25060,11 +25090,11 @@
       <c r="BH60" s="147"/>
       <c r="BI60" s="148"/>
       <c r="BL60" s="148"/>
-      <c r="BS60" s="453" t="s">
+      <c r="BS60" s="452" t="s">
         <v>121</v>
       </c>
-      <c r="BT60" s="454"/>
-      <c r="BU60" s="455"/>
+      <c r="BT60" s="453"/>
+      <c r="BU60" s="454"/>
       <c r="BV60" s="184"/>
       <c r="BW60" s="184"/>
       <c r="BX60" s="184"/>
@@ -25428,120 +25458,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="456" t="s">
+      <c r="B1" s="455" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="457"/>
-      <c r="I1" s="457"/>
-      <c r="J1" s="457"/>
-      <c r="K1" s="457"/>
-      <c r="L1" s="457"/>
-      <c r="M1" s="457"/>
-      <c r="N1" s="457"/>
-      <c r="O1" s="457"/>
-      <c r="P1" s="457"/>
-      <c r="Q1" s="458"/>
-      <c r="R1" s="447" t="s">
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
+      <c r="P1" s="456"/>
+      <c r="Q1" s="457"/>
+      <c r="R1" s="446" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="448"/>
-      <c r="T1" s="448"/>
-      <c r="U1" s="448"/>
-      <c r="V1" s="448"/>
-      <c r="W1" s="448"/>
-      <c r="X1" s="448"/>
-      <c r="Y1" s="448"/>
-      <c r="Z1" s="448"/>
-      <c r="AA1" s="448"/>
-      <c r="AB1" s="448"/>
-      <c r="AC1" s="448"/>
-      <c r="AD1" s="448"/>
-      <c r="AE1" s="448"/>
-      <c r="AF1" s="448"/>
-      <c r="AG1" s="448"/>
-      <c r="AH1" s="448"/>
-      <c r="AI1" s="448"/>
-      <c r="AJ1" s="448"/>
-      <c r="AK1" s="448"/>
-      <c r="AL1" s="448"/>
-      <c r="AM1" s="449"/>
-      <c r="AN1" s="447" t="s">
+      <c r="S1" s="447"/>
+      <c r="T1" s="447"/>
+      <c r="U1" s="447"/>
+      <c r="V1" s="447"/>
+      <c r="W1" s="447"/>
+      <c r="X1" s="447"/>
+      <c r="Y1" s="447"/>
+      <c r="Z1" s="447"/>
+      <c r="AA1" s="447"/>
+      <c r="AB1" s="447"/>
+      <c r="AC1" s="447"/>
+      <c r="AD1" s="447"/>
+      <c r="AE1" s="447"/>
+      <c r="AF1" s="447"/>
+      <c r="AG1" s="447"/>
+      <c r="AH1" s="447"/>
+      <c r="AI1" s="447"/>
+      <c r="AJ1" s="447"/>
+      <c r="AK1" s="447"/>
+      <c r="AL1" s="447"/>
+      <c r="AM1" s="448"/>
+      <c r="AN1" s="446" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="448"/>
-      <c r="AP1" s="448"/>
-      <c r="AQ1" s="448"/>
-      <c r="AR1" s="448"/>
-      <c r="AS1" s="448"/>
-      <c r="AT1" s="448"/>
-      <c r="AU1" s="448"/>
-      <c r="AV1" s="448"/>
-      <c r="AW1" s="448"/>
-      <c r="AX1" s="448"/>
-      <c r="AY1" s="448"/>
-      <c r="AZ1" s="448"/>
-      <c r="BA1" s="448"/>
-      <c r="BB1" s="448"/>
-      <c r="BC1" s="448"/>
-      <c r="BD1" s="448"/>
-      <c r="BE1" s="448"/>
-      <c r="BF1" s="448"/>
-      <c r="BG1" s="448"/>
-      <c r="BH1" s="448"/>
-      <c r="BI1" s="448"/>
-      <c r="BJ1" s="449"/>
-      <c r="BK1" s="447" t="s">
+      <c r="AO1" s="447"/>
+      <c r="AP1" s="447"/>
+      <c r="AQ1" s="447"/>
+      <c r="AR1" s="447"/>
+      <c r="AS1" s="447"/>
+      <c r="AT1" s="447"/>
+      <c r="AU1" s="447"/>
+      <c r="AV1" s="447"/>
+      <c r="AW1" s="447"/>
+      <c r="AX1" s="447"/>
+      <c r="AY1" s="447"/>
+      <c r="AZ1" s="447"/>
+      <c r="BA1" s="447"/>
+      <c r="BB1" s="447"/>
+      <c r="BC1" s="447"/>
+      <c r="BD1" s="447"/>
+      <c r="BE1" s="447"/>
+      <c r="BF1" s="447"/>
+      <c r="BG1" s="447"/>
+      <c r="BH1" s="447"/>
+      <c r="BI1" s="447"/>
+      <c r="BJ1" s="448"/>
+      <c r="BK1" s="446" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="448"/>
-      <c r="BM1" s="448"/>
-      <c r="BN1" s="448"/>
-      <c r="BO1" s="448"/>
-      <c r="BP1" s="448"/>
-      <c r="BQ1" s="448"/>
-      <c r="BR1" s="448"/>
-      <c r="BS1" s="448"/>
-      <c r="BT1" s="448"/>
-      <c r="BU1" s="448"/>
-      <c r="BV1" s="448"/>
-      <c r="BW1" s="448"/>
-      <c r="BX1" s="448"/>
-      <c r="BY1" s="448"/>
-      <c r="BZ1" s="448"/>
-      <c r="CA1" s="448"/>
-      <c r="CB1" s="448"/>
-      <c r="CC1" s="448"/>
-      <c r="CD1" s="448"/>
-      <c r="CE1" s="448"/>
-      <c r="CF1" s="448"/>
-      <c r="CG1" s="449"/>
-      <c r="CH1" s="447" t="s">
+      <c r="BL1" s="447"/>
+      <c r="BM1" s="447"/>
+      <c r="BN1" s="447"/>
+      <c r="BO1" s="447"/>
+      <c r="BP1" s="447"/>
+      <c r="BQ1" s="447"/>
+      <c r="BR1" s="447"/>
+      <c r="BS1" s="447"/>
+      <c r="BT1" s="447"/>
+      <c r="BU1" s="447"/>
+      <c r="BV1" s="447"/>
+      <c r="BW1" s="447"/>
+      <c r="BX1" s="447"/>
+      <c r="BY1" s="447"/>
+      <c r="BZ1" s="447"/>
+      <c r="CA1" s="447"/>
+      <c r="CB1" s="447"/>
+      <c r="CC1" s="447"/>
+      <c r="CD1" s="447"/>
+      <c r="CE1" s="447"/>
+      <c r="CF1" s="447"/>
+      <c r="CG1" s="448"/>
+      <c r="CH1" s="446" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="448"/>
-      <c r="CJ1" s="448"/>
-      <c r="CK1" s="448"/>
-      <c r="CL1" s="448"/>
-      <c r="CM1" s="448"/>
-      <c r="CN1" s="448"/>
-      <c r="CO1" s="448"/>
-      <c r="CP1" s="448"/>
-      <c r="CQ1" s="449"/>
-      <c r="CR1" s="459" t="s">
+      <c r="CI1" s="447"/>
+      <c r="CJ1" s="447"/>
+      <c r="CK1" s="447"/>
+      <c r="CL1" s="447"/>
+      <c r="CM1" s="447"/>
+      <c r="CN1" s="447"/>
+      <c r="CO1" s="447"/>
+      <c r="CP1" s="447"/>
+      <c r="CQ1" s="448"/>
+      <c r="CR1" s="458" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="460"/>
-      <c r="CT1" s="460"/>
-      <c r="CU1" s="460"/>
-      <c r="CV1" s="460"/>
-      <c r="CW1" s="460"/>
-      <c r="CX1" s="460"/>
-      <c r="CY1" s="461"/>
+      <c r="CS1" s="459"/>
+      <c r="CT1" s="459"/>
+      <c r="CU1" s="459"/>
+      <c r="CV1" s="459"/>
+      <c r="CW1" s="459"/>
+      <c r="CX1" s="459"/>
+      <c r="CY1" s="460"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27350,11 +27380,11 @@
       <c r="AK47" s="284"/>
       <c r="AM47" s="283"/>
       <c r="AN47" s="280"/>
-      <c r="AY47" s="462" t="s">
+      <c r="AY47" s="461" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="463"/>
-      <c r="BA47" s="464"/>
+      <c r="AZ47" s="462"/>
+      <c r="BA47" s="463"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -27747,11 +27777,11 @@
       <c r="BJ60" s="147"/>
       <c r="BK60" s="145"/>
       <c r="BN60" s="148"/>
-      <c r="BU60" s="453" t="s">
+      <c r="BU60" s="452" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="454"/>
-      <c r="BW60" s="455"/>
+      <c r="BV60" s="453"/>
+      <c r="BW60" s="454"/>
       <c r="BX60" s="184"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -28226,120 +28256,120 @@
   <sheetData>
     <row r="1" spans="1:104" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="456" t="s">
+      <c r="B1" s="455" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="457"/>
-      <c r="I1" s="457"/>
-      <c r="J1" s="457"/>
-      <c r="K1" s="457"/>
-      <c r="L1" s="457"/>
-      <c r="M1" s="457"/>
-      <c r="N1" s="457"/>
-      <c r="O1" s="457"/>
-      <c r="P1" s="457"/>
-      <c r="Q1" s="458"/>
-      <c r="R1" s="447" t="s">
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
+      <c r="P1" s="456"/>
+      <c r="Q1" s="457"/>
+      <c r="R1" s="446" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="448"/>
-      <c r="T1" s="448"/>
-      <c r="U1" s="448"/>
-      <c r="V1" s="448"/>
-      <c r="W1" s="448"/>
-      <c r="X1" s="448"/>
-      <c r="Y1" s="448"/>
-      <c r="Z1" s="448"/>
-      <c r="AA1" s="448"/>
-      <c r="AB1" s="448"/>
-      <c r="AC1" s="448"/>
-      <c r="AD1" s="448"/>
-      <c r="AE1" s="448"/>
-      <c r="AF1" s="448"/>
-      <c r="AG1" s="448"/>
-      <c r="AH1" s="448"/>
-      <c r="AI1" s="448"/>
-      <c r="AJ1" s="448"/>
-      <c r="AK1" s="448"/>
-      <c r="AL1" s="448"/>
-      <c r="AM1" s="449"/>
-      <c r="AN1" s="447" t="s">
+      <c r="S1" s="447"/>
+      <c r="T1" s="447"/>
+      <c r="U1" s="447"/>
+      <c r="V1" s="447"/>
+      <c r="W1" s="447"/>
+      <c r="X1" s="447"/>
+      <c r="Y1" s="447"/>
+      <c r="Z1" s="447"/>
+      <c r="AA1" s="447"/>
+      <c r="AB1" s="447"/>
+      <c r="AC1" s="447"/>
+      <c r="AD1" s="447"/>
+      <c r="AE1" s="447"/>
+      <c r="AF1" s="447"/>
+      <c r="AG1" s="447"/>
+      <c r="AH1" s="447"/>
+      <c r="AI1" s="447"/>
+      <c r="AJ1" s="447"/>
+      <c r="AK1" s="447"/>
+      <c r="AL1" s="447"/>
+      <c r="AM1" s="448"/>
+      <c r="AN1" s="446" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="448"/>
-      <c r="AP1" s="448"/>
-      <c r="AQ1" s="448"/>
-      <c r="AR1" s="448"/>
-      <c r="AS1" s="448"/>
-      <c r="AT1" s="448"/>
-      <c r="AU1" s="448"/>
-      <c r="AV1" s="448"/>
-      <c r="AW1" s="448"/>
-      <c r="AX1" s="448"/>
-      <c r="AY1" s="448"/>
-      <c r="AZ1" s="448"/>
-      <c r="BA1" s="448"/>
-      <c r="BB1" s="448"/>
-      <c r="BC1" s="448"/>
-      <c r="BD1" s="448"/>
-      <c r="BE1" s="448"/>
-      <c r="BF1" s="448"/>
-      <c r="BG1" s="448"/>
-      <c r="BH1" s="448"/>
-      <c r="BI1" s="448"/>
-      <c r="BJ1" s="449"/>
-      <c r="BK1" s="447" t="s">
+      <c r="AO1" s="447"/>
+      <c r="AP1" s="447"/>
+      <c r="AQ1" s="447"/>
+      <c r="AR1" s="447"/>
+      <c r="AS1" s="447"/>
+      <c r="AT1" s="447"/>
+      <c r="AU1" s="447"/>
+      <c r="AV1" s="447"/>
+      <c r="AW1" s="447"/>
+      <c r="AX1" s="447"/>
+      <c r="AY1" s="447"/>
+      <c r="AZ1" s="447"/>
+      <c r="BA1" s="447"/>
+      <c r="BB1" s="447"/>
+      <c r="BC1" s="447"/>
+      <c r="BD1" s="447"/>
+      <c r="BE1" s="447"/>
+      <c r="BF1" s="447"/>
+      <c r="BG1" s="447"/>
+      <c r="BH1" s="447"/>
+      <c r="BI1" s="447"/>
+      <c r="BJ1" s="448"/>
+      <c r="BK1" s="446" t="s">
         <v>124</v>
       </c>
-      <c r="BL1" s="448"/>
-      <c r="BM1" s="448"/>
-      <c r="BN1" s="448"/>
-      <c r="BO1" s="448"/>
-      <c r="BP1" s="448"/>
-      <c r="BQ1" s="448"/>
-      <c r="BR1" s="448"/>
-      <c r="BS1" s="448"/>
-      <c r="BT1" s="448"/>
-      <c r="BU1" s="448"/>
-      <c r="BV1" s="448"/>
-      <c r="BW1" s="448"/>
-      <c r="BX1" s="448"/>
-      <c r="BY1" s="448"/>
-      <c r="BZ1" s="448"/>
-      <c r="CA1" s="448"/>
-      <c r="CB1" s="448"/>
-      <c r="CC1" s="448"/>
-      <c r="CD1" s="448"/>
-      <c r="CE1" s="448"/>
-      <c r="CF1" s="448"/>
-      <c r="CG1" s="449"/>
-      <c r="CH1" s="447" t="s">
+      <c r="BL1" s="447"/>
+      <c r="BM1" s="447"/>
+      <c r="BN1" s="447"/>
+      <c r="BO1" s="447"/>
+      <c r="BP1" s="447"/>
+      <c r="BQ1" s="447"/>
+      <c r="BR1" s="447"/>
+      <c r="BS1" s="447"/>
+      <c r="BT1" s="447"/>
+      <c r="BU1" s="447"/>
+      <c r="BV1" s="447"/>
+      <c r="BW1" s="447"/>
+      <c r="BX1" s="447"/>
+      <c r="BY1" s="447"/>
+      <c r="BZ1" s="447"/>
+      <c r="CA1" s="447"/>
+      <c r="CB1" s="447"/>
+      <c r="CC1" s="447"/>
+      <c r="CD1" s="447"/>
+      <c r="CE1" s="447"/>
+      <c r="CF1" s="447"/>
+      <c r="CG1" s="448"/>
+      <c r="CH1" s="446" t="s">
         <v>125</v>
       </c>
-      <c r="CI1" s="448"/>
-      <c r="CJ1" s="448"/>
-      <c r="CK1" s="448"/>
-      <c r="CL1" s="448"/>
-      <c r="CM1" s="448"/>
-      <c r="CN1" s="448"/>
-      <c r="CO1" s="448"/>
-      <c r="CP1" s="448"/>
-      <c r="CQ1" s="449"/>
-      <c r="CR1" s="459" t="s">
+      <c r="CI1" s="447"/>
+      <c r="CJ1" s="447"/>
+      <c r="CK1" s="447"/>
+      <c r="CL1" s="447"/>
+      <c r="CM1" s="447"/>
+      <c r="CN1" s="447"/>
+      <c r="CO1" s="447"/>
+      <c r="CP1" s="447"/>
+      <c r="CQ1" s="448"/>
+      <c r="CR1" s="458" t="s">
         <v>126</v>
       </c>
-      <c r="CS1" s="460"/>
-      <c r="CT1" s="460"/>
-      <c r="CU1" s="460"/>
-      <c r="CV1" s="460"/>
-      <c r="CW1" s="460"/>
-      <c r="CX1" s="460"/>
-      <c r="CY1" s="461"/>
+      <c r="CS1" s="459"/>
+      <c r="CT1" s="459"/>
+      <c r="CU1" s="459"/>
+      <c r="CV1" s="459"/>
+      <c r="CW1" s="459"/>
+      <c r="CX1" s="459"/>
+      <c r="CY1" s="460"/>
       <c r="CZ1" s="99"/>
     </row>
     <row r="2" spans="1:104" s="107" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -30927,11 +30957,11 @@
       <c r="AN47" s="280"/>
       <c r="AQ47" s="306"/>
       <c r="AV47" s="306"/>
-      <c r="AY47" s="462" t="s">
+      <c r="AY47" s="461" t="s">
         <v>121</v>
       </c>
-      <c r="AZ47" s="463"/>
-      <c r="BA47" s="464"/>
+      <c r="AZ47" s="462"/>
+      <c r="BA47" s="463"/>
       <c r="BB47" s="285"/>
       <c r="BC47" s="285"/>
       <c r="BD47" s="285"/>
@@ -31580,11 +31610,11 @@
       <c r="BK60" s="145"/>
       <c r="BN60" s="321"/>
       <c r="BS60" s="302"/>
-      <c r="BU60" s="453" t="s">
+      <c r="BU60" s="452" t="s">
         <v>121</v>
       </c>
-      <c r="BV60" s="454"/>
-      <c r="BW60" s="455"/>
+      <c r="BV60" s="453"/>
+      <c r="BW60" s="454"/>
       <c r="BX60" s="302"/>
       <c r="BY60" s="184"/>
       <c r="BZ60" s="184"/>
@@ -34643,8 +34673,8 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34683,10 +34713,12 @@
       <c r="H1" s="397" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="433"/>
+      <c r="I1" s="397" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="2" spans="1:16" s="401" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="468" t="s">
+      <c r="A2" s="467" t="s">
         <v>141</v>
       </c>
       <c r="B2" s="399">
@@ -34697,13 +34729,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="469"/>
+      <c r="A3" s="468"/>
       <c r="B3" s="402">
         <v>43671</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="406" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="469"/>
+      <c r="A4" s="468"/>
       <c r="B4" s="404">
         <v>43672</v>
       </c>
@@ -34716,7 +34748,7 @@
       <c r="P4" s="407"/>
     </row>
     <row r="5" spans="1:16" s="410" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="469"/>
+      <c r="A5" s="468"/>
       <c r="B5" s="408">
         <v>43675</v>
       </c>
@@ -34737,7 +34769,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="469"/>
+      <c r="A6" s="468"/>
       <c r="B6" s="408">
         <v>43676</v>
       </c>
@@ -34755,7 +34787,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" s="410" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="469"/>
+      <c r="A7" s="468"/>
       <c r="B7" s="408">
         <v>43677</v>
       </c>
@@ -34774,18 +34806,18 @@
       <c r="G7" s="410" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="434" t="s">
+      <c r="H7" s="433" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="469"/>
+      <c r="A8" s="468"/>
       <c r="B8" s="402">
         <v>43678</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="410" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="469"/>
+      <c r="A9" s="468"/>
       <c r="B9" s="408">
         <v>43679</v>
       </c>
@@ -34801,7 +34833,7 @@
       <c r="F9" s="432"/>
     </row>
     <row r="10" spans="1:16" s="406" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="469"/>
+      <c r="A10" s="468"/>
       <c r="B10" s="404">
         <v>43682</v>
       </c>
@@ -34816,7 +34848,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="469"/>
+      <c r="A11" s="468"/>
       <c r="B11" s="404">
         <v>43683</v>
       </c>
@@ -34834,7 +34866,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="469"/>
+      <c r="A12" s="468"/>
       <c r="B12" s="404">
         <v>43684</v>
       </c>
@@ -34844,30 +34876,30 @@
       <c r="D12" s="406" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="435" t="s">
+      <c r="H12" s="434" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="469"/>
+      <c r="A13" s="468"/>
       <c r="B13" s="402">
         <v>43685</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="469"/>
+      <c r="A14" s="468"/>
       <c r="B14" s="404">
         <v>43686</v>
       </c>
       <c r="C14" s="406" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="435" t="s">
+      <c r="D14" s="434" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="469"/>
+      <c r="A15" s="468"/>
       <c r="B15" s="408">
         <v>43689</v>
       </c>
@@ -34879,7 +34911,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="469"/>
+      <c r="A16" s="468"/>
       <c r="B16" s="408">
         <v>43690</v>
       </c>
@@ -34888,7 +34920,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="469"/>
+      <c r="A17" s="468"/>
       <c r="B17" s="408">
         <v>43691</v>
       </c>
@@ -34897,13 +34929,13 @@
       </c>
     </row>
     <row r="18" spans="1:8" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="469"/>
+      <c r="A18" s="468"/>
       <c r="B18" s="402">
         <v>43692</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="412" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="470"/>
+      <c r="A19" s="469"/>
       <c r="B19" s="411">
         <v>43693</v>
       </c>
@@ -34912,7 +34944,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" s="401" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="465" t="s">
+      <c r="A20" s="464" t="s">
         <v>142</v>
       </c>
       <c r="B20" s="413">
@@ -34929,7 +34961,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="406" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="466"/>
+      <c r="A21" s="465"/>
       <c r="B21" s="415">
         <v>43697</v>
       </c>
@@ -34947,7 +34979,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="466"/>
+      <c r="A22" s="465"/>
       <c r="B22" s="415">
         <v>43698</v>
       </c>
@@ -34957,14 +34989,14 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="403" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="466"/>
+      <c r="A23" s="465"/>
       <c r="B23" s="418">
         <v>43699</v>
       </c>
       <c r="C23" s="403" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="436" t="s">
+      <c r="D23" s="435" t="s">
         <v>208</v>
       </c>
       <c r="E23" s="403" t="s">
@@ -34972,7 +35004,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="466"/>
+      <c r="A24" s="465"/>
       <c r="B24" s="415">
         <v>43700</v>
       </c>
@@ -34981,7 +35013,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="410" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="466"/>
+      <c r="A25" s="465"/>
       <c r="B25" s="419">
         <v>43703</v>
       </c>
@@ -34996,7 +35028,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="410" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="466"/>
+      <c r="A26" s="465"/>
       <c r="B26" s="419">
         <v>43704</v>
       </c>
@@ -35011,7 +35043,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="466"/>
+      <c r="A27" s="465"/>
       <c r="B27" s="419">
         <v>43705</v>
       </c>
@@ -35023,13 +35055,13 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="466"/>
+      <c r="A28" s="465"/>
       <c r="B28" s="418">
         <v>43706</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="466"/>
+      <c r="A29" s="465"/>
       <c r="B29" s="419">
         <v>43707</v>
       </c>
@@ -35045,7 +35077,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="466"/>
+      <c r="A30" s="465"/>
       <c r="B30" s="415">
         <v>43710</v>
       </c>
@@ -35054,7 +35086,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="466"/>
+      <c r="A31" s="465"/>
       <c r="B31" s="415">
         <v>43711</v>
       </c>
@@ -35063,7 +35095,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" s="406" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="466"/>
+      <c r="A32" s="465"/>
       <c r="B32" s="415">
         <v>43712</v>
       </c>
@@ -35075,13 +35107,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="466"/>
+      <c r="A33" s="465"/>
       <c r="B33" s="418">
         <v>43713</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="466"/>
+      <c r="A34" s="465"/>
       <c r="B34" s="415">
         <v>43714</v>
       </c>
@@ -35090,7 +35122,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="466"/>
+      <c r="A35" s="465"/>
       <c r="B35" s="419">
         <v>43717</v>
       </c>
@@ -35099,7 +35131,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="466"/>
+      <c r="A36" s="465"/>
       <c r="B36" s="419">
         <v>43718</v>
       </c>
@@ -35108,7 +35140,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="466"/>
+      <c r="A37" s="465"/>
       <c r="B37" s="419">
         <v>43719</v>
       </c>
@@ -35117,13 +35149,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="466"/>
+      <c r="A38" s="465"/>
       <c r="B38" s="418">
         <v>43720</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="466"/>
+      <c r="A39" s="465"/>
       <c r="B39" s="419">
         <v>43721</v>
       </c>
@@ -35132,7 +35164,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="466"/>
+      <c r="A40" s="465"/>
       <c r="B40" s="415">
         <v>43724</v>
       </c>
@@ -35141,7 +35173,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="466"/>
+      <c r="A41" s="465"/>
       <c r="B41" s="415">
         <v>43725</v>
       </c>
@@ -35150,7 +35182,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="466"/>
+      <c r="A42" s="465"/>
       <c r="B42" s="415">
         <v>43726</v>
       </c>
@@ -35159,16 +35191,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" s="427" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="467"/>
-      <c r="B43" s="440">
+      <c r="A43" s="466"/>
+      <c r="B43" s="439">
         <v>43727</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="429" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="471" t="s">
+      <c r="A44" s="470" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="441">
+      <c r="B44" s="440">
         <v>43728</v>
       </c>
       <c r="C44" s="417" t="s">
@@ -35178,20 +35210,20 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="439" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="472"/>
-      <c r="B45" s="437">
+    <row r="45" spans="1:5" s="438" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="471"/>
+      <c r="B45" s="436">
         <v>43731</v>
       </c>
-      <c r="C45" s="438" t="s">
+      <c r="C45" s="437" t="s">
         <v>217</v>
       </c>
-      <c r="D45" s="438" t="s">
+      <c r="D45" s="437" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="410" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="472"/>
+      <c r="A46" s="471"/>
       <c r="B46" s="423">
         <v>43732</v>
       </c>
@@ -35203,7 +35235,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="472"/>
+      <c r="A47" s="471"/>
       <c r="B47" s="423">
         <v>43733</v>
       </c>
@@ -35215,13 +35247,13 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="472"/>
+      <c r="A48" s="471"/>
       <c r="B48" s="424">
         <v>43734</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="410" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A49" s="472"/>
+      <c r="A49" s="471"/>
       <c r="B49" s="423">
         <v>43735</v>
       </c>
@@ -35230,7 +35262,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" s="406" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="472"/>
+      <c r="A50" s="471"/>
       <c r="B50" s="425">
         <v>43738</v>
       </c>
@@ -35239,7 +35271,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" s="406" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="472"/>
+      <c r="A51" s="471"/>
       <c r="B51" s="425">
         <v>43739</v>
       </c>
@@ -35248,46 +35280,60 @@
       </c>
     </row>
     <row r="52" spans="1:9" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="472"/>
+      <c r="A52" s="471"/>
       <c r="B52" s="425">
         <v>43740</v>
       </c>
       <c r="C52" s="406" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="403" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="472"/>
-      <c r="B53" s="424">
+      <c r="D52" s="406" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="475" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="471"/>
+      <c r="B53" s="473">
         <v>43741</v>
       </c>
-      <c r="C53" s="436" t="s">
+      <c r="C53" s="474" t="s">
         <v>178</v>
       </c>
-      <c r="I53" s="403" t="s">
-        <v>224</v>
+      <c r="D53" s="475" t="s">
+        <v>225</v>
+      </c>
+      <c r="I53" s="475" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="472"/>
+      <c r="A54" s="471"/>
       <c r="B54" s="425">
         <v>43742</v>
       </c>
-      <c r="C54" s="405" t="s">
-        <v>225</v>
+      <c r="C54" s="477" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" s="478"/>
+      <c r="E54" s="478"/>
+      <c r="F54" s="478"/>
+      <c r="G54" s="478"/>
+      <c r="H54" s="479"/>
+      <c r="I54" s="406" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="472"/>
+      <c r="A55" s="471"/>
       <c r="B55" s="423">
         <v>43745</v>
       </c>
       <c r="C55" s="410" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="472"/>
+      <c r="A56" s="471"/>
       <c r="B56" s="423">
         <v>43746</v>
       </c>
@@ -35296,7 +35342,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="472"/>
+      <c r="A57" s="471"/>
       <c r="B57" s="423">
         <v>43747</v>
       </c>
@@ -35305,13 +35351,13 @@
       </c>
     </row>
     <row r="58" spans="1:9" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="472"/>
+      <c r="A58" s="471"/>
       <c r="B58" s="424">
         <v>43748</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="472"/>
+      <c r="A59" s="471"/>
       <c r="B59" s="423">
         <v>43749</v>
       </c>
@@ -35320,7 +35366,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="472"/>
+      <c r="A60" s="471"/>
       <c r="B60" s="425">
         <v>43754</v>
       </c>
@@ -35329,13 +35375,13 @@
       </c>
     </row>
     <row r="61" spans="1:9" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="472"/>
+      <c r="A61" s="471"/>
       <c r="B61" s="424">
         <v>43755</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="472"/>
+      <c r="A62" s="471"/>
       <c r="B62" s="425">
         <v>43756</v>
       </c>
@@ -35344,7 +35390,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="472"/>
+      <c r="A63" s="471"/>
       <c r="B63" s="423">
         <v>43759</v>
       </c>
@@ -35353,7 +35399,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="472"/>
+      <c r="A64" s="471"/>
       <c r="B64" s="423">
         <v>43760</v>
       </c>
@@ -35361,8 +35407,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="472"/>
+    <row r="65" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="471"/>
       <c r="B65" s="423">
         <v>43761</v>
       </c>
@@ -35370,14 +35416,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="427" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="473"/>
+    <row r="66" spans="1:5" s="427" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="472"/>
       <c r="B66" s="426">
         <v>43762</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" s="422" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="471" t="s">
+      <c r="E66" s="476"/>
+    </row>
+    <row r="67" spans="1:5" s="422" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="470" t="s">
         <v>144</v>
       </c>
       <c r="B67" s="420">
@@ -35387,8 +35434,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="472"/>
+    <row r="68" spans="1:5" s="406" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="471"/>
       <c r="B68" s="425">
         <v>43766</v>
       </c>
@@ -35399,8 +35446,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="472"/>
+    <row r="69" spans="1:5" s="406" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="471"/>
       <c r="B69" s="425">
         <v>43767</v>
       </c>
@@ -35411,8 +35458,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="472"/>
+    <row r="70" spans="1:5" s="406" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="471"/>
       <c r="B70" s="425">
         <v>43768</v>
       </c>
@@ -35423,14 +35470,14 @@
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="472"/>
+    <row r="71" spans="1:5" s="403" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="471"/>
       <c r="B71" s="424">
         <v>43769</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="472"/>
+    <row r="72" spans="1:5" s="406" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="471"/>
       <c r="B72" s="425">
         <v>43770</v>
       </c>
@@ -35438,8 +35485,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="472"/>
+    <row r="73" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="471"/>
       <c r="B73" s="423">
         <v>43773</v>
       </c>
@@ -35450,8 +35497,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="472"/>
+    <row r="74" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="471"/>
       <c r="B74" s="423">
         <v>43774</v>
       </c>
@@ -35462,8 +35509,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="472"/>
+    <row r="75" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="471"/>
       <c r="B75" s="423">
         <v>43775</v>
       </c>
@@ -35471,14 +35518,14 @@
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="472"/>
+    <row r="76" spans="1:5" s="403" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="471"/>
       <c r="B76" s="424">
         <v>43776</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="472"/>
+    <row r="77" spans="1:5" s="410" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="471"/>
       <c r="B77" s="423">
         <v>43777</v>
       </c>
@@ -35486,8 +35533,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="472"/>
+    <row r="78" spans="1:5" s="406" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="471"/>
       <c r="B78" s="425">
         <v>43780</v>
       </c>
@@ -35495,8 +35542,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="472"/>
+    <row r="79" spans="1:5" s="406" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="471"/>
       <c r="B79" s="425">
         <v>43781</v>
       </c>
@@ -35504,8 +35551,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="472"/>
+    <row r="80" spans="1:5" s="406" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="471"/>
       <c r="B80" s="425">
         <v>43782</v>
       </c>
@@ -35514,13 +35561,13 @@
       </c>
     </row>
     <row r="81" spans="1:3" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="472"/>
+      <c r="A81" s="471"/>
       <c r="B81" s="424">
         <v>43783</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="472"/>
+      <c r="A82" s="471"/>
       <c r="B82" s="423">
         <v>43787</v>
       </c>
@@ -35529,7 +35576,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="472"/>
+      <c r="A83" s="471"/>
       <c r="B83" s="423">
         <v>43788</v>
       </c>
@@ -35538,13 +35585,13 @@
       </c>
     </row>
     <row r="84" spans="1:3" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="472"/>
+      <c r="A84" s="471"/>
       <c r="B84" s="424">
         <v>43790</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="472"/>
+      <c r="A85" s="471"/>
       <c r="B85" s="423">
         <v>43791</v>
       </c>
@@ -35553,7 +35600,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="472"/>
+      <c r="A86" s="471"/>
       <c r="B86" s="425">
         <v>43794</v>
       </c>
@@ -35562,7 +35609,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="472"/>
+      <c r="A87" s="471"/>
       <c r="B87" s="425">
         <v>43795</v>
       </c>
@@ -35571,7 +35618,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="472"/>
+      <c r="A88" s="471"/>
       <c r="B88" s="425">
         <v>43796</v>
       </c>
@@ -35580,13 +35627,13 @@
       </c>
     </row>
     <row r="89" spans="1:3" s="427" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="473"/>
+      <c r="A89" s="472"/>
       <c r="B89" s="426">
         <v>43797</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="401" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="465" t="s">
+      <c r="A90" s="464" t="s">
         <v>145</v>
       </c>
       <c r="B90" s="428">
@@ -35597,7 +35644,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="466"/>
+      <c r="A91" s="465"/>
       <c r="B91" s="423">
         <v>43801</v>
       </c>
@@ -35606,7 +35653,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="466"/>
+      <c r="A92" s="465"/>
       <c r="B92" s="423">
         <v>43802</v>
       </c>
@@ -35615,7 +35662,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="466"/>
+      <c r="A93" s="465"/>
       <c r="B93" s="423">
         <v>43803</v>
       </c>
@@ -35624,13 +35671,13 @@
       </c>
     </row>
     <row r="94" spans="1:3" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="466"/>
+      <c r="A94" s="465"/>
       <c r="B94" s="424">
         <v>43804</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="410" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="466"/>
+      <c r="A95" s="465"/>
       <c r="B95" s="423">
         <v>43805</v>
       </c>
@@ -35639,7 +35686,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="466"/>
+      <c r="A96" s="465"/>
       <c r="B96" s="425">
         <v>43808</v>
       </c>
@@ -35648,7 +35695,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="466"/>
+      <c r="A97" s="465"/>
       <c r="B97" s="425">
         <v>43809</v>
       </c>
@@ -35657,7 +35704,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" s="406" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="466"/>
+      <c r="A98" s="465"/>
       <c r="B98" s="425">
         <v>43810</v>
       </c>
@@ -35666,7 +35713,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" s="427" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="467"/>
+      <c r="A99" s="466"/>
       <c r="B99" s="426">
         <v>43811</v>
       </c>
@@ -35692,7 +35739,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C54:H54"/>
     <mergeCell ref="A90:A99"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A67:A89"/>
